--- a/biology/Microbiologie/Blautia/Blautia.xlsx
+++ b/biology/Microbiologie/Blautia/Blautia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Blautia est un genre de bactéries à gram positif de la famille des Lachnospiraceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Blautia est formé de bactéries non mobiles à coloration de gram positive. Elles sont des formes de coques ou ovales. Elles ne forment généralement pas de spores mais cela peut parfois se produire pour certaines souches. Ce sont des bactéries chimio-organotrophes, anaérobies et ayant un catabolisme de type fermentatif. Quelques espèces utilisent H2 et CO2 comme sources majeures d'énergie[1]. Chez ces bactéries, le métabolisme du glucose produit surtout de l'acétate, de l'éthanol, de l'hydrogène, de l'acide lactique et de l'acide succinique[1].
-Le contenu en bases nucléiques guanine et cytosine est de 37 à 47 %[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Blautia est formé de bactéries non mobiles à coloration de gram positive. Elles sont des formes de coques ou ovales. Elles ne forment généralement pas de spores mais cela peut parfois se produire pour certaines souches. Ce sont des bactéries chimio-organotrophes, anaérobies et ayant un catabolisme de type fermentatif. Quelques espèces utilisent H2 et CO2 comme sources majeures d'énergie. Chez ces bactéries, le métabolisme du glucose produit surtout de l'acétate, de l'éthanol, de l'hydrogène, de l'acide lactique et de l'acide succinique.
+Le contenu en bases nucléiques guanine et cytosine est de 37 à 47 %.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des bactéries que l'on retrouve dans les fèces des animaux et des humains[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des bactéries que l'on retrouve dans les fèces des animaux et des humains.
 </t>
         </is>
       </c>
@@ -574,14 +590,86 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Blautia Liu et al. 2008[2]. Le nom de ce taxon a été validé la même année[3].
-L'espèce type est : Blautia coccoides (Kaneuchi et al. 1976) Liu et al. 2008[2].
-Étymologie
-L'étymologie de l'épithète spécifique  de Blautia coccoides est la suivante : Blau’ti.a. N.L. fem. n. Blautia, en 'honneur de Michael Blaut, un microbiologiste allemand, en reconnaissance de ces nombreuses contributions à la microbiologie gastrointestinale humaine[2].
-Liste des espèces
-Selon LPSN  (26 avril 2024)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Blautia Liu et al. 2008. Le nom de ce taxon a été validé la même année.
+L'espèce type est : Blautia coccoides (Kaneuchi et al. 1976) Liu et al. 2008.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Blautia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Blautia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de l'épithète spécifique  de Blautia coccoides est la suivante : Blau’ti.a. N.L. fem. n. Blautia, en 'honneur de Michael Blaut, un microbiologiste allemand, en reconnaissance de ces nombreuses contributions à la microbiologie gastrointestinale humaine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Blautia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Blautia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (26 avril 2024) :
 Blautia acetigignens Hitch et al. 2022
 Blautia ammoniilytica Hitch et al. 2022
 Blautia argi Paek et al. 2019
@@ -604,9 +692,43 @@
 Blautia pseudococcoides Maturana &amp; Cárdenas 2022
 Blautia schinkii (Rieu-Lesme et al. 1997) Liu et al. 2008
 Blautia stercoris Park et al. 2012
-Blautia wexlerae Liu et al. 2008
-Espèces non valides
-Selon la LPSN  (26 avril 2024)[2], plusieurs espèces ont été publiées de manière non valide et dont le nom actuel n'est que le nom préféré (mais pas formellement accepté). Parmi ces espèces ont retrouve :
+Blautia wexlerae Liu et al. 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Blautia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Blautia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Espèces non valides</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (26 avril 2024), plusieurs espèces ont été publiées de manière non valide et dont le nom actuel n'est que le nom préféré (mais pas formellement accepté). Parmi ces espèces ont retrouve :
 "Candidatus Blautia avicola" Gilroy et al. 2021
 "Candidatus Blautia avistercoris" Gilroy et al. 2021
 "Blautia brookingsii" Ghimire et al. 2020
@@ -634,9 +756,43 @@
 "Blautia segnis" Liu et al. 2021
 "Candidatus Blautia stercoravium" Gilroy et al. 2021
 "Candidatus Blautia stercorigallinarum" Gilroy et al. 2021
-"Candidatus Blautia stercoripullorum" Gilroy et al. 2021
-Espèce synonyme
-Selon la LPSN  (26 avril 2024)[2], l'espèce Blautia glucerasei (Furuya et al. 2010) a été mal nommée et a dû être renommée en Blautia glucerasea en 2010.
+"Candidatus Blautia stercoripullorum" Gilroy et al. 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blautia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Blautia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Espèce synonyme</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la LPSN  (26 avril 2024), l'espèce Blautia glucerasei (Furuya et al. 2010) a été mal nommée et a dû être renommée en Blautia glucerasea en 2010.
 </t>
         </is>
       </c>
